--- a/static/matrices/Foreign National Matrix.xlsx
+++ b/static/matrices/Foreign National Matrix.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwulbern\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Walker\Web Pricer\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Foreign National" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Foreign National - 2nd Home and Investment</t>
   </si>
@@ -52,7 +49,8 @@
 LTV/CLTV</t>
   </si>
   <si>
-    <t>Full Doc</t>
+    <t>Full Doc
+2nd Home or Investment</t>
   </si>
   <si>
     <t>A</t>
@@ -70,24 +68,24 @@
     <t>B+</t>
   </si>
   <si>
+    <t>Investment Only - DSCR &gt; = 1.15</t>
+  </si>
+  <si>
+    <t>Investment Only - DSCR &lt; 1.15</t>
+  </si>
+  <si>
+    <t>Grade Determination</t>
+  </si>
+  <si>
     <t>DSCR</t>
   </si>
   <si>
-    <t>No Ratio</t>
-  </si>
-  <si>
-    <t>Grade Determination</t>
-  </si>
-  <si>
     <t>Minimum FICO</t>
   </si>
   <si>
     <t>620;</t>
   </si>
   <si>
-    <t>640;</t>
-  </si>
-  <si>
     <t>Foreign Credit</t>
   </si>
   <si>
@@ -178,7 +176,7 @@
     <t>Unleased Prop (Refi):</t>
   </si>
   <si>
-    <t>•  First Time Invester: Purchase Money Only</t>
+    <t>•  First Time Investor: Purchase Money Only</t>
   </si>
   <si>
     <t>Restrictions</t>
@@ -277,7 +275,7 @@
     <t>Not Available</t>
   </si>
   <si>
-    <t>Eligibile States:</t>
+    <t>Eligible States:</t>
   </si>
   <si>
     <t xml:space="preserve">Nationwide excluding Puerto Rico, Guam and the US Virgin Islands; DC, MD, NJ and NY restricted to a 680 minimum FICO when US credit is available (Not restricted for Foreign Credit). </t>
@@ -292,16 +290,13 @@
     <t>Points and Fees:</t>
   </si>
   <si>
-    <t>2nd Home: &lt;=3%</t>
+    <t>May not exceed 5%</t>
   </si>
   <si>
     <t>Interested Party Contribution:</t>
   </si>
   <si>
     <t>May not exceed 3%</t>
-  </si>
-  <si>
-    <t>Investment: &lt;= 5%</t>
   </si>
   <si>
     <t>Borrower Eligibility - Documentation</t>
@@ -405,33 +400,6 @@
     <t>• 2nd Homes not allowed</t>
   </si>
   <si>
-    <t>Minimum DSCR Requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount &lt;=$115k:         </t>
-  </si>
-  <si>
-    <t>1.30 DSCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount $115k-$400k:    </t>
-  </si>
-  <si>
-    <t>1.25 DSCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Loan Amount &gt;$400k:            </t>
-  </si>
-  <si>
-    <t>1.15 DSCR</t>
-  </si>
-  <si>
-    <t>No Ratio - No debt-to-Income calculation</t>
-  </si>
-  <si>
-    <t>• Employment/Income - No employment or income verification required</t>
-  </si>
-  <si>
     <t>Documenting Assets Held in Foreign Accounts:</t>
   </si>
   <si>
@@ -447,11 +415,10 @@
     <t>50% (Full Doc Only)</t>
   </si>
   <si>
-    <t>Mimimum Reserves:</t>
-  </si>
-  <si>
-    <t>Full/DSCR: 12 Months
-No Ratio: 0 Months</t>
+    <t>Minimum Reserves:</t>
+  </si>
+  <si>
+    <t>Full/DSCR: 12 Months</t>
   </si>
   <si>
     <t>Minimum Residual Income:</t>
@@ -467,6 +434,9 @@
   </si>
   <si>
     <t>• Add 2 months reserves for each additional financed property (including primary residence). Total reserve requirement is not to exceed 24 months. . Requirement is not applicable when there is no reserve requirement.</t>
+  </si>
+  <si>
+    <t>Effective Date:</t>
   </si>
 </sst>
 </file>
@@ -609,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +600,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -753,19 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -796,6 +759,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -983,7 +959,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1002,104 +978,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1036,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1051,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,67 +1096,52 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,53 +1156,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1300,190 +1174,288 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1502,36 +1474,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Credit Ascent-Primary"/>
-      <sheetName val="Credit Ascent-2nd Home"/>
-      <sheetName val="Investor Solutions"/>
-      <sheetName val="Investor Solution DSCR-No Ratio"/>
-      <sheetName val="Foreign National"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="H1" t="str">
-            <v>Effective Date:</v>
-          </cell>
-          <cell r="I1">
-            <v>42681</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1834,10 +1776,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:F89"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,13 +1801,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="E1" s="2" t="str">
-        <f>'[1]Credit Ascent-Primary'!$H$1</f>
-        <v>Effective Date:</v>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F1" s="3">
-        <f>'[1]Credit Ascent-Primary'!$I$1</f>
-        <v>42681</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,1217 +1828,1120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>75</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>75</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>70</v>
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="179"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>70</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>70</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>65</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="179"/>
+      <c r="B5" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>70</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>70</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="179"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>70</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>70</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="179"/>
+      <c r="B7" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>70</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>70</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="180"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>65</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>65</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>70</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>65</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>65</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>60</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>65</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>60</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>60</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>60</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>14</v>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="173"/>
+      <c r="C15" s="174">
         <v>680</v>
       </c>
-      <c r="C15" s="23">
+      <c r="D15" s="12">
         <v>660</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="A16" s="144"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="177"/>
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="E17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="F17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="167"/>
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="33" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="167"/>
+      <c r="C20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="167"/>
+      <c r="C21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="F21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="37">
         <v>70</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="43">
         <v>70</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="44">
         <v>0.5</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="47">
         <v>65</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="48">
         <v>0.4</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="50">
         <v>60</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="52">
         <v>0.4</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="42"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="42"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80" t="s">
+      <c r="A35" s="152"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="42"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80" t="s">
+      <c r="A36" s="152"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="42"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-      <c r="I37" s="71"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="82"/>
-      <c r="I38" s="71"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="83" t="s">
+      <c r="A39" s="152"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82"/>
-      <c r="I39" s="71"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="86" t="s">
+      <c r="A40" s="153"/>
+      <c r="B40" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89" t="s">
+      <c r="D40" s="67"/>
+      <c r="E40" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="I40" s="71"/>
+      <c r="F40" s="69"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96"/>
-      <c r="I41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="72" t="s">
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="F42" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="71"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="102"/>
-      <c r="I43" s="71"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="161"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="105"/>
-      <c r="I44" s="71"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="162"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="108" t="s">
+      <c r="C45" s="76"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="71"/>
+      <c r="I45" s="55"/>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="109" t="s">
+      <c r="A46" s="144"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="162"/>
+      <c r="I46" s="55"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="105"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="112" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="80"/>
+      <c r="I47" s="55"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="114"/>
-      <c r="I47" s="71"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="116" t="s">
+      <c r="B48" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="86"/>
+      <c r="I48" s="55"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="87"/>
+      <c r="B49" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="I48" s="71"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-      <c r="R48" s="115"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122" t="s">
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="91"/>
+      <c r="I49" s="26"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="87"/>
+      <c r="B50" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="125"/>
-      <c r="I49" s="42"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="115"/>
-      <c r="R49" s="115"/>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="122" t="s">
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="91"/>
+      <c r="I50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="87"/>
+      <c r="B51" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="125"/>
-      <c r="I50" s="115"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="115"/>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
-      <c r="B51" s="122" t="s">
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
+      <c r="I51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="87"/>
+      <c r="B52" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="125"/>
-      <c r="I51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="115"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="126" t="s">
+      <c r="C52" s="93"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="91"/>
+      <c r="I52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="127"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="125"/>
-      <c r="I52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="96"/>
+      <c r="I53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="128"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="130"/>
-      <c r="I53" s="115"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="115"/>
-      <c r="R53" s="115"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="131" t="s">
+      <c r="B54" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="134"/>
-      <c r="I54" s="115"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="135"/>
+      <c r="I54" s="81"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="136"/>
       <c r="C55" s="137"/>
       <c r="D55" s="137"/>
       <c r="E55" s="137"/>
       <c r="F55" s="138"/>
-      <c r="I55" s="115"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
+      <c r="I55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
     </row>
     <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="135"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="139"/>
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140"/>
       <c r="F56" s="141"/>
-      <c r="I56" s="115"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="115"/>
-      <c r="R56" s="115"/>
+      <c r="I56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="134"/>
-      <c r="I57" s="115"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="135"/>
+      <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="136"/>
       <c r="C58" s="137"/>
       <c r="D58" s="137"/>
       <c r="E58" s="137"/>
       <c r="F58" s="138"/>
-      <c r="I58" s="115"/>
+      <c r="I58" s="81"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="136"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
       <c r="F59" s="138"/>
-      <c r="I59" s="115"/>
+      <c r="I59" s="81"/>
     </row>
     <row r="60" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="143"/>
-      <c r="I60" s="115"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="100"/>
+      <c r="I60" s="81"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="144" t="s">
+      <c r="A61" s="98"/>
+      <c r="B61" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="104"/>
+      <c r="I61" s="103"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="98"/>
+      <c r="B62" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="147"/>
-      <c r="I61" s="146"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="148" t="s">
+      <c r="C62" s="90"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="104"/>
+      <c r="I62" s="103"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="98"/>
+      <c r="B63" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147"/>
-      <c r="I62" s="146"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="135"/>
-      <c r="B63" s="148" t="s">
+      <c r="C63" s="90"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="104"/>
+      <c r="I63" s="103"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="98"/>
+      <c r="B64" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="124"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="147"/>
-      <c r="I63" s="146"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="135"/>
-      <c r="B64" s="148" t="s">
+      <c r="C64" s="90"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="104"/>
+      <c r="I64" s="103"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="106"/>
+      <c r="B65" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="124"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="147"/>
-      <c r="I64" s="146"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="149" t="s">
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="110"/>
+      <c r="I65" s="103"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="150"/>
-      <c r="D65" s="151"/>
-      <c r="E65" s="151"/>
-      <c r="F65" s="152"/>
-      <c r="I65" s="146"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="112" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="I66" s="103"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="I66" s="146"/>
-    </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="153" t="s">
+      <c r="B67" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="154" t="s">
+      <c r="C67" s="112"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="I67" s="103"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="143"/>
+      <c r="B68" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="155"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39"/>
-      <c r="I67" s="146"/>
-    </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
-      <c r="B68" s="157" t="s">
+      <c r="C68" s="114"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="I68" s="103"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="143"/>
+      <c r="B69" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="158"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-      <c r="I68" s="146"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
-      <c r="B69" s="159" t="s">
+      <c r="C69" s="116"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
+      <c r="I69" s="103"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="143"/>
+      <c r="B70" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="160"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="46"/>
-      <c r="I69" s="146"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="156"/>
-      <c r="B70" s="161" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="143"/>
+      <c r="B71" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="156"/>
-      <c r="B71" s="157" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="143"/>
+      <c r="B72" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
-      <c r="B72" s="157" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="143"/>
+      <c r="B73" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="156"/>
-      <c r="B73" s="157" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="143"/>
+      <c r="B74" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="156"/>
-      <c r="B74" s="157" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="143"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-    </row>
-    <row r="75" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="156"/>
-      <c r="B75" s="157"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-    </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="156"/>
-      <c r="B76" s="162" t="s">
+      <c r="B76" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="43"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="120"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="121"/>
+      <c r="I76" s="122"/>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="156"/>
-      <c r="B77" s="163" t="s">
+      <c r="A77" s="143"/>
+      <c r="B77" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="164"/>
-      <c r="D77" s="165" t="s">
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="147"/>
+      <c r="I77" s="123"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="144"/>
+      <c r="B78" s="148"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="149"/>
+      <c r="E78" s="149"/>
+      <c r="F78" s="150"/>
+      <c r="I78" s="123"/>
+    </row>
+    <row r="79" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="156"/>
-      <c r="B78" s="163" t="s">
+      <c r="B79" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="164"/>
-      <c r="D78" s="165" t="s">
+      <c r="C79" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="156"/>
-      <c r="B79" s="166" t="s">
+      <c r="D79" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="167"/>
-      <c r="D79" s="168" t="s">
+      <c r="E79" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="46"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
+      <c r="F79" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" s="123"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="39"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
+      <c r="A80" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="130"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="131"/>
+      <c r="I80" s="123"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
+      <c r="A81" s="152"/>
+      <c r="B81" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="155"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="156"/>
+      <c r="I81" s="123"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="46"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-    </row>
-    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="170"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="172"/>
-      <c r="I83" s="173"/>
-    </row>
-    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="156"/>
-      <c r="B84" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="174"/>
-      <c r="I84" s="175"/>
-    </row>
-    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="176"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
-      <c r="E85" s="104"/>
-      <c r="F85" s="177"/>
-      <c r="I85" s="175"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="178" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="179" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="179" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" s="181" t="s">
-        <v>117</v>
-      </c>
-      <c r="I86" s="175"/>
-    </row>
-    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="182" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="183"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="184"/>
-      <c r="I87" s="175"/>
-    </row>
-    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
-      <c r="B88" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="187"/>
-      <c r="I88" s="175"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="188"/>
-      <c r="C89" s="189"/>
-      <c r="D89" s="189"/>
-      <c r="E89" s="189"/>
-      <c r="F89" s="190"/>
-      <c r="I89" s="175"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="175"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="175"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="157"/>
+      <c r="C82" s="158"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="159"/>
+      <c r="I82" s="123"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="123"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="123"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D86" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B57:F59"/>
-    <mergeCell ref="A67:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B84:F85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B88:F89"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B54:F56"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:D44"/>
+  <mergeCells count="32">
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B81:F82"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:D44"/>
+    <mergeCell ref="B54:F56"/>
+    <mergeCell ref="B57:F59"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B77:F78"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
